--- a/probability/Zn/2His_1Glu/threshold.xlsx
+++ b/probability/Zn/2His_1Glu/threshold.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241113_Metal_Intaller_Data_Final\ZN\2His_1Glu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EC3773-2B34-43B2-984F-29E703B8C0D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7394F6A8-6897-4D5C-B0DE-5462B7E18556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="C2" s="2">
         <v>7.6</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -499,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C5" s="2">
         <v>1.5</v>

--- a/probability/Zn/2His_1Glu/threshold.xlsx
+++ b/probability/Zn/2His_1Glu/threshold.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\2His_1Glu\probability\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Zn\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7394F6A8-6897-4D5C-B0DE-5462B7E18556}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AADC536-BFEB-4113-B3DA-B47651FCF454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,7 +480,7 @@
         <v>3.1</v>
       </c>
       <c r="C3" s="2">
-        <v>6.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
